--- a/plot.xlsx
+++ b/plot.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0368B51-A822-4C1D-829F-2ABE9FDAE9A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75946438-CC0E-4E48-90EE-305F26F992D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>LOSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,22 @@
   </si>
   <si>
     <t>对抗ACC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xavier ACC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xavier LOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaiming ACC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaiming LOSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,6 +808,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="651025407"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1551,6 +1568,1175 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="819530719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>不同初始化方式的差异</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xavier LOSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$23:$L$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B3A5-426F-B261-88BE2FF9B4B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kaiming LOSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$23:$N$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B3A5-426F-B261-88BE2FF9B4B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="717406816"/>
+        <c:axId val="718835376"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xavier ACC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$23:$K$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>7.1062E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.188611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28083399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32709199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.364844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39811000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43370799999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47265400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51367099999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55031799999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.581951</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60757000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63405599999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66201399999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69442999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73265400000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.77010599999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79322700000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.81179500000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82669199999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.83795900000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85081799999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86495500000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.87090800000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.87622699999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.88046400000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.88369500000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88573900000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88736599999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.89039199999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89086900000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89215199999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.89277899999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.89424000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.89589399999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.89578899999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.89881</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.89953700000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.90055300000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.90240200000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.90278499999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.90437299999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.90548899999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.90553399999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.90764900000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90814300000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.90864299999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.90962600000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.911242</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.91117499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3A5-426F-B261-88BE2FF9B4B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kaiming ACC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$23:$M$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>4.9467999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.113973</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.240505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34492200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40895399999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47742899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55052900000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61400600000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65859900000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69645100000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72923300000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76088299999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78620900000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80911299999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83113499999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84569300000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85591600000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86308399999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87025799999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87466699999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.87951999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.88385100000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.886405</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88948700000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.89311300000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.89549500000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.89895400000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.90203599999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.904173</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90741099999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.909659</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.91164699999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.91300199999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.91524000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91718900000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91878800000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92086400000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92303599999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92394100000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.92652800000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.92781599999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.92976499999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.92976499999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.93134799999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.93339099999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.93445699999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93608999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.93598999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.93741699999999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.939388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B3A5-426F-B261-88BE2FF9B4B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="834313920"/>
+        <c:axId val="835354704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="717406816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718835376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="718835376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717406816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="835354704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="834313920"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="834313920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="835354704"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1719,6 +2905,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2223,6 +3449,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2794,6 +4523,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CFBE5D6-4C28-4E1E-A26B-53EB51D47299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3065,10 +4830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D72"/>
+  <dimension ref="A2:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="E39" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3077,6 +4842,10 @@
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3284,7 +5053,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.49568000000000001</v>
       </c>
@@ -3298,7 +5067,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0.50899000000000005</v>
       </c>
@@ -3312,422 +5081,1034 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.184035</v>
       </c>
       <c r="B23" s="1">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K23" s="1">
+        <v>7.1062E-2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="M23" s="1">
+        <v>4.9467999999999998E-2</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0.35302800000000001</v>
       </c>
       <c r="B24" s="1">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K24" s="1">
+        <v>0.188611</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.113973</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0.45201999999999998</v>
       </c>
       <c r="B25" s="1">
         <v>1.49</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K25" s="1">
+        <v>0.28083399999999997</v>
+      </c>
+      <c r="L25" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.240505</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0.54418800000000001</v>
       </c>
       <c r="B26" s="1">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K26" s="1">
+        <v>0.32709199999999999</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.34492200000000001</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.63268999999999997</v>
       </c>
       <c r="B27" s="1">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K27" s="1">
+        <v>0.364844</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.40895399999999998</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.70291400000000004</v>
       </c>
       <c r="B28" s="1">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K28" s="1">
+        <v>0.39811000000000002</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.47742899999999999</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.75371500000000002</v>
       </c>
       <c r="B29" s="1">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K29" s="1">
+        <v>0.43370799999999998</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.55052900000000005</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0.79369900000000004</v>
       </c>
       <c r="B30" s="1">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K30" s="1">
+        <v>0.47265400000000002</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.61400600000000005</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.82146699999999995</v>
       </c>
       <c r="B31" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K31" s="1">
+        <v>0.51367099999999999</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.65859900000000005</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.84467199999999998</v>
       </c>
       <c r="B32" s="1">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K32" s="1">
+        <v>0.55031799999999997</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.69645100000000004</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0.86238999999999999</v>
       </c>
       <c r="B33" s="1">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K33" s="1">
+        <v>0.581951</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.72923300000000002</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0.87988599999999995</v>
       </c>
       <c r="B34" s="1">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K34" s="1">
+        <v>0.60757000000000005</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.76088299999999998</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0.89608900000000002</v>
       </c>
       <c r="B35" s="1">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K35" s="1">
+        <v>0.63405599999999995</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.78620900000000005</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0.90750500000000001</v>
       </c>
       <c r="B36" s="1">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K36" s="1">
+        <v>0.66201399999999999</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.80911299999999997</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0.91526200000000002</v>
       </c>
       <c r="B37" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K37" s="1">
+        <v>0.69442999999999999</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.83113499999999996</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0.92254700000000001</v>
       </c>
       <c r="B38" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K38" s="1">
+        <v>0.73265400000000003</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.84569300000000003</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0.929643</v>
       </c>
       <c r="B39" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K39" s="1">
+        <v>0.77010599999999996</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0.85591600000000001</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0.93351899999999999</v>
       </c>
       <c r="B40" s="1">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K40" s="1">
+        <v>0.79322700000000002</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.86308399999999996</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0.93890499999999999</v>
       </c>
       <c r="B41" s="1">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K41" s="1">
+        <v>0.81179500000000004</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.87025799999999998</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0.943241</v>
       </c>
       <c r="B42" s="1">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K42" s="1">
+        <v>0.82669199999999998</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.87466699999999997</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0.946079</v>
       </c>
       <c r="B43" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K43" s="1">
+        <v>0.83795900000000001</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.87951999999999997</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0.94939399999999996</v>
       </c>
       <c r="B44" s="1">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K44" s="1">
+        <v>0.85081799999999996</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.88385100000000005</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0.95324200000000003</v>
       </c>
       <c r="B45" s="1">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K45" s="1">
+        <v>0.86495500000000003</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.886405</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0.95593499999999998</v>
       </c>
       <c r="B46" s="1">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K46" s="1">
+        <v>0.87090800000000002</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.88948700000000003</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0.95799500000000004</v>
       </c>
       <c r="B47" s="1">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K47" s="1">
+        <v>0.87622699999999998</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.89311300000000005</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0.95977100000000004</v>
       </c>
       <c r="B48" s="1">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K48" s="1">
+        <v>0.88046400000000002</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0.89549500000000004</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0.96136500000000003</v>
       </c>
       <c r="B49" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K49" s="1">
+        <v>0.88369500000000001</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0.89895400000000003</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0.963947</v>
       </c>
       <c r="B50" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K50" s="1">
+        <v>0.88573900000000005</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0.90203599999999995</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0.96493499999999999</v>
       </c>
       <c r="B51" s="1">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K51" s="1">
+        <v>0.88736599999999999</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.904173</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0.96773399999999998</v>
       </c>
       <c r="B52" s="1">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K52" s="1">
+        <v>0.89039199999999996</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0.90741099999999997</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0.96962199999999998</v>
       </c>
       <c r="B53" s="1">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K53" s="1">
+        <v>0.89086900000000002</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0.909659</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0.97026000000000001</v>
       </c>
       <c r="B54" s="1">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K54" s="1">
+        <v>0.89215199999999995</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.91164699999999999</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0.97132600000000002</v>
       </c>
       <c r="B55" s="1">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K55" s="1">
+        <v>0.89277899999999999</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0.91300199999999998</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0.97334799999999999</v>
       </c>
       <c r="B56" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K56" s="1">
+        <v>0.89424000000000003</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.91524000000000005</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0.97377000000000002</v>
       </c>
       <c r="B57" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K57" s="1">
+        <v>0.89589399999999997</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.91718900000000003</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0.97556900000000002</v>
       </c>
       <c r="B58" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K58" s="1">
+        <v>0.89578899999999995</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.91878800000000005</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0.976962</v>
       </c>
       <c r="B59" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K59" s="1">
+        <v>0.89881</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0.92086400000000002</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0.97702900000000004</v>
       </c>
       <c r="B60" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K60" s="1">
+        <v>0.89953700000000003</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.92303599999999997</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0.978634</v>
       </c>
       <c r="B61" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K61" s="1">
+        <v>0.90055300000000005</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0.92394100000000001</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0.97862800000000005</v>
       </c>
       <c r="B62" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K62" s="1">
+        <v>0.90240200000000004</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0.92652800000000002</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0.97995500000000002</v>
       </c>
       <c r="B63" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K63" s="1">
+        <v>0.90278499999999995</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0.92781599999999997</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0.98075999999999997</v>
       </c>
       <c r="B64" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K64" s="1">
+        <v>0.90437299999999998</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0.92976499999999995</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0.98126000000000002</v>
       </c>
       <c r="B65" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K65" s="1">
+        <v>0.90548899999999999</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0.92976499999999995</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0.98214800000000002</v>
       </c>
       <c r="B66" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K66" s="1">
+        <v>0.90553399999999995</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0.93134799999999995</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0.98293699999999995</v>
       </c>
       <c r="B67" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K67" s="1">
+        <v>0.90764900000000004</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0.93339099999999997</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0.983653</v>
       </c>
       <c r="B68" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K68" s="1">
+        <v>0.90814300000000003</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.93445699999999998</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0.98477499999999996</v>
       </c>
       <c r="B69" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K69" s="1">
+        <v>0.90864299999999998</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0.93608999999999998</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0.98552399999999996</v>
       </c>
       <c r="B70" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K70" s="1">
+        <v>0.90962600000000005</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0.93598999999999999</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0.98551900000000003</v>
       </c>
       <c r="B71" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K71" s="1">
+        <v>0.911242</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0.93741699999999994</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0.98605200000000004</v>
       </c>
       <c r="B72" s="1">
         <v>0.04</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0.91117499999999996</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0.939388</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
